--- a/data/pca/factorExposure/factorExposure_2019-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1174141312404245</v>
+        <v>-0.0781238906160321</v>
       </c>
       <c r="C2">
-        <v>0.01322623093100216</v>
+        <v>-0.01641048396466924</v>
       </c>
       <c r="D2">
-        <v>-0.07454026288060182</v>
+        <v>0.03551363266128184</v>
       </c>
       <c r="E2">
-        <v>0.08102844852334025</v>
+        <v>-0.1355294653583181</v>
       </c>
       <c r="F2">
-        <v>0.05655097276162316</v>
+        <v>-0.01014784861142398</v>
       </c>
       <c r="G2">
-        <v>-0.06149683255710152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0783135839743803</v>
+      </c>
+      <c r="H2">
+        <v>0.0746306708515137</v>
+      </c>
+      <c r="I2">
+        <v>0.0801051711669043</v>
+      </c>
+      <c r="J2">
+        <v>0.03236878464377625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.1976833707111939</v>
+        <v>-0.1546507599238468</v>
       </c>
       <c r="C3">
-        <v>-0.09413479375180724</v>
+        <v>-0.101541253516004</v>
       </c>
       <c r="D3">
-        <v>-0.06965356209071016</v>
+        <v>-0.04170818421150969</v>
       </c>
       <c r="E3">
-        <v>0.3026681350488598</v>
+        <v>-0.3608531392099733</v>
       </c>
       <c r="F3">
-        <v>-0.02358051582278354</v>
+        <v>-0.1170138034421907</v>
       </c>
       <c r="G3">
-        <v>-0.3013657362889077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01531140418818732</v>
+      </c>
+      <c r="H3">
+        <v>0.2774409153524819</v>
+      </c>
+      <c r="I3">
+        <v>0.1647231367814922</v>
+      </c>
+      <c r="J3">
+        <v>-0.06726487135943598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09348017245905595</v>
+        <v>-0.07244319681937803</v>
       </c>
       <c r="C4">
-        <v>-0.01981441498038537</v>
+        <v>-0.03117867553990006</v>
       </c>
       <c r="D4">
-        <v>-0.03938650826191796</v>
+        <v>0.02385611661141533</v>
       </c>
       <c r="E4">
-        <v>0.08014816120414074</v>
+        <v>-0.08659860551672838</v>
       </c>
       <c r="F4">
-        <v>0.03608038772503366</v>
+        <v>-0.05451571091266962</v>
       </c>
       <c r="G4">
-        <v>-0.02230794931706461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03412068329218678</v>
+      </c>
+      <c r="H4">
+        <v>0.03968088116366711</v>
+      </c>
+      <c r="I4">
+        <v>0.01247130310552615</v>
+      </c>
+      <c r="J4">
+        <v>-0.04301103267853611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009881091660983192</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004897177967881336</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002076130793809014</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006685336836250961</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0004167566006809176</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01350730465431689</v>
+      </c>
+      <c r="H6">
+        <v>0.002674681071062853</v>
+      </c>
+      <c r="I6">
+        <v>0.002508390217404423</v>
+      </c>
+      <c r="J6">
+        <v>-0.001940673780023931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04071283337322478</v>
+        <v>-0.03480283167386592</v>
       </c>
       <c r="C7">
-        <v>-0.004367827231639247</v>
+        <v>-0.01592306497159402</v>
       </c>
       <c r="D7">
-        <v>-0.0514019172914267</v>
+        <v>0.01787641529266667</v>
       </c>
       <c r="E7">
-        <v>0.0577199272042932</v>
+        <v>-0.05764895008021258</v>
       </c>
       <c r="F7">
-        <v>-0.05641012591265789</v>
+        <v>-0.02872848645849016</v>
       </c>
       <c r="G7">
-        <v>-0.02277793144541841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01783630341062188</v>
+      </c>
+      <c r="H7">
+        <v>0.04662321657453314</v>
+      </c>
+      <c r="I7">
+        <v>-0.004317875549474932</v>
+      </c>
+      <c r="J7">
+        <v>-0.03115155269754185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03821690747049268</v>
+        <v>-0.02993002665197611</v>
       </c>
       <c r="C8">
-        <v>-0.03502849141663725</v>
+        <v>-0.03699329253404946</v>
       </c>
       <c r="D8">
-        <v>-0.02223972145912879</v>
+        <v>0.008966223210607938</v>
       </c>
       <c r="E8">
-        <v>0.06660843377184898</v>
+        <v>-0.07703468835620354</v>
       </c>
       <c r="F8">
-        <v>-0.005205332299929876</v>
+        <v>-0.04607315879813217</v>
       </c>
       <c r="G8">
-        <v>-0.04325867706933102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.00394350088306018</v>
+      </c>
+      <c r="H8">
+        <v>0.05521030859113578</v>
+      </c>
+      <c r="I8">
+        <v>0.03502777531395747</v>
+      </c>
+      <c r="J8">
+        <v>-0.02337098466578508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08315358620508528</v>
+        <v>-0.06161905925374254</v>
       </c>
       <c r="C9">
-        <v>-0.02081863560001424</v>
+        <v>-0.03073028044043976</v>
       </c>
       <c r="D9">
-        <v>-0.05037184386811761</v>
+        <v>0.02555369541332396</v>
       </c>
       <c r="E9">
-        <v>0.06912329396101165</v>
+        <v>-0.08314537837517054</v>
       </c>
       <c r="F9">
-        <v>0.02006027784791162</v>
+        <v>-0.05914054406526489</v>
       </c>
       <c r="G9">
-        <v>-0.01998040695265576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02237287219119242</v>
+      </c>
+      <c r="H9">
+        <v>0.03521724288069666</v>
+      </c>
+      <c r="I9">
+        <v>0.009178596802970741</v>
+      </c>
+      <c r="J9">
+        <v>-0.01039746948408857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.0224058869221256</v>
+        <v>-0.004926317726200121</v>
       </c>
       <c r="C10">
-        <v>0.1608196482464928</v>
+        <v>0.1570407359432494</v>
       </c>
       <c r="D10">
-        <v>-0.006458630244729003</v>
+        <v>-0.01705212390788804</v>
       </c>
       <c r="E10">
-        <v>0.04770561879748987</v>
+        <v>-0.0505661080431884</v>
       </c>
       <c r="F10">
-        <v>-0.005568631705780414</v>
+        <v>-0.006775845715582575</v>
       </c>
       <c r="G10">
-        <v>0.01703959538675749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01141716273864361</v>
+      </c>
+      <c r="H10">
+        <v>-0.02412299985974182</v>
+      </c>
+      <c r="I10">
+        <v>0.1042239838124303</v>
+      </c>
+      <c r="J10">
+        <v>-0.06822597372990893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05933297188495612</v>
+        <v>-0.05059145675393838</v>
       </c>
       <c r="C11">
-        <v>0.00119090606813864</v>
+        <v>-0.01629031119517879</v>
       </c>
       <c r="D11">
-        <v>-0.006580697408693268</v>
+        <v>0.005069828600095049</v>
       </c>
       <c r="E11">
-        <v>0.04478076346245161</v>
+        <v>-0.04866628531172367</v>
       </c>
       <c r="F11">
-        <v>-0.004621105796876903</v>
+        <v>-0.003443978057467412</v>
       </c>
       <c r="G11">
-        <v>0.01139463733617531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0006939327026812589</v>
+      </c>
+      <c r="H11">
+        <v>0.020820331347534</v>
+      </c>
+      <c r="I11">
+        <v>-0.01080602669455887</v>
+      </c>
+      <c r="J11">
+        <v>0.004404152458254222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04911763176025285</v>
+        <v>-0.04859636581366428</v>
       </c>
       <c r="C12">
-        <v>-0.002358716224955239</v>
+        <v>-0.0162257217986161</v>
       </c>
       <c r="D12">
-        <v>-0.007174340409032925</v>
+        <v>0.007887210989912267</v>
       </c>
       <c r="E12">
-        <v>0.02400881669498177</v>
+        <v>-0.02531501103866425</v>
       </c>
       <c r="F12">
-        <v>-0.00969581839756091</v>
+        <v>-0.01887956690428051</v>
       </c>
       <c r="G12">
-        <v>-0.0002694495725063774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003948568200704136</v>
+      </c>
+      <c r="H12">
+        <v>0.01112462178076819</v>
+      </c>
+      <c r="I12">
+        <v>-0.01800469907699264</v>
+      </c>
+      <c r="J12">
+        <v>0.007483693212430417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.0555392984756833</v>
+        <v>-0.03824860793444092</v>
       </c>
       <c r="C13">
-        <v>-0.01798885984566259</v>
+        <v>-0.02329818229263653</v>
       </c>
       <c r="D13">
-        <v>-0.02751224632804227</v>
+        <v>0.004875003178363628</v>
       </c>
       <c r="E13">
-        <v>0.1073308464190331</v>
+        <v>-0.104720520969005</v>
       </c>
       <c r="F13">
-        <v>2.87610083700484e-06</v>
+        <v>-0.008151244601032349</v>
       </c>
       <c r="G13">
-        <v>-0.01280006335068065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.002199572775747758</v>
+      </c>
+      <c r="H13">
+        <v>0.05198350131203856</v>
+      </c>
+      <c r="I13">
+        <v>0.03662364510172812</v>
+      </c>
+      <c r="J13">
+        <v>0.01629871934917361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03784472255243642</v>
+        <v>-0.02853973445315508</v>
       </c>
       <c r="C14">
-        <v>-0.007205641732096824</v>
+        <v>-0.01595191429678645</v>
       </c>
       <c r="D14">
-        <v>-0.02400120311823552</v>
+        <v>0.02072443310295449</v>
       </c>
       <c r="E14">
-        <v>0.0178647075100322</v>
+        <v>-0.03718696798219502</v>
       </c>
       <c r="F14">
-        <v>-0.006477245132521272</v>
+        <v>-0.01993547725071033</v>
       </c>
       <c r="G14">
-        <v>-0.03210082367212489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01331264985461665</v>
+      </c>
+      <c r="H14">
+        <v>0.06120554382978903</v>
+      </c>
+      <c r="I14">
+        <v>0.02430823050959502</v>
+      </c>
+      <c r="J14">
+        <v>-0.01535880470140594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05197518059304618</v>
+        <v>-0.04280434486897309</v>
       </c>
       <c r="C16">
-        <v>-0.01632981950174659</v>
+        <v>-0.02521959668076082</v>
       </c>
       <c r="D16">
-        <v>0.0064672347018039</v>
+        <v>-0.001301354250811003</v>
       </c>
       <c r="E16">
-        <v>0.04840595632745207</v>
+        <v>-0.0451940061345022</v>
       </c>
       <c r="F16">
-        <v>-0.005258840312486863</v>
+        <v>-0.007324661316638047</v>
       </c>
       <c r="G16">
-        <v>0.003052827136145244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005317848786916107</v>
+      </c>
+      <c r="H16">
+        <v>0.02123719067927419</v>
+      </c>
+      <c r="I16">
+        <v>-0.01278820294404445</v>
+      </c>
+      <c r="J16">
+        <v>7.721926851263481e-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04405969789363279</v>
+        <v>-0.04575870236910474</v>
       </c>
       <c r="C19">
-        <v>-0.02981775775529922</v>
+        <v>-0.03424138833756869</v>
       </c>
       <c r="D19">
-        <v>-0.02452547496863173</v>
+        <v>0.007884460387848197</v>
       </c>
       <c r="E19">
-        <v>0.07252858034204708</v>
+        <v>-0.09198963264039767</v>
       </c>
       <c r="F19">
-        <v>-0.01167276260286583</v>
+        <v>-0.03019159081632544</v>
       </c>
       <c r="G19">
-        <v>-0.02912300666615657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.007647211993392375</v>
+      </c>
+      <c r="H19">
+        <v>0.07294207077913968</v>
+      </c>
+      <c r="I19">
+        <v>0.07115439231672883</v>
+      </c>
+      <c r="J19">
+        <v>-0.0003222225810092662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03203559955480043</v>
+        <v>-0.01703419836045865</v>
       </c>
       <c r="C20">
-        <v>-0.03492079637445527</v>
+        <v>-0.03409963814665358</v>
       </c>
       <c r="D20">
-        <v>-0.02486706011564246</v>
+        <v>0.01282277887234997</v>
       </c>
       <c r="E20">
-        <v>0.0661621865546367</v>
+        <v>-0.07155878971072188</v>
       </c>
       <c r="F20">
-        <v>-0.02069275388733915</v>
+        <v>-0.03353134758705263</v>
       </c>
       <c r="G20">
-        <v>-0.03887225891066264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01179085593192532</v>
+      </c>
+      <c r="H20">
+        <v>0.07701774004147585</v>
+      </c>
+      <c r="I20">
+        <v>0.01929068501911906</v>
+      </c>
+      <c r="J20">
+        <v>-0.02401050978693934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03486840239056362</v>
+        <v>-0.01664415108179113</v>
       </c>
       <c r="C21">
-        <v>-0.02060891755325481</v>
+        <v>-0.02666434938229621</v>
       </c>
       <c r="D21">
-        <v>-0.01969567450739712</v>
+        <v>-0.01053132473268631</v>
       </c>
       <c r="E21">
-        <v>0.09159972667454334</v>
+        <v>-0.08197505730438337</v>
       </c>
       <c r="F21">
-        <v>0.02313658772386392</v>
+        <v>-0.0273081804252718</v>
       </c>
       <c r="G21">
-        <v>-0.01725752892561117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01332400044161455</v>
+      </c>
+      <c r="H21">
+        <v>0.04265604679888125</v>
+      </c>
+      <c r="I21">
+        <v>0.01764169107564356</v>
+      </c>
+      <c r="J21">
+        <v>0.02273836712267407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04629536028022281</v>
+        <v>-0.04066868457543364</v>
       </c>
       <c r="C24">
-        <v>-0.01029341416221563</v>
+        <v>-0.01558144915208679</v>
       </c>
       <c r="D24">
-        <v>-0.01300261293115025</v>
+        <v>0.004975200541392989</v>
       </c>
       <c r="E24">
-        <v>0.0538553117117504</v>
+        <v>-0.04974873477935195</v>
       </c>
       <c r="F24">
-        <v>-0.008837643007822313</v>
+        <v>-0.007548587558659458</v>
       </c>
       <c r="G24">
-        <v>0.01079843931963894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01211732867671214</v>
+      </c>
+      <c r="H24">
+        <v>0.01660960983819034</v>
+      </c>
+      <c r="I24">
+        <v>-0.009177709412002579</v>
+      </c>
+      <c r="J24">
+        <v>-0.001147953431289151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05014192327972395</v>
+        <v>-0.043708416500185</v>
       </c>
       <c r="C25">
-        <v>0.00101334462625446</v>
+        <v>-0.01594085912632024</v>
       </c>
       <c r="D25">
-        <v>-0.006747593022430109</v>
+        <v>0.004391519149609936</v>
       </c>
       <c r="E25">
-        <v>0.04247948546254609</v>
+        <v>-0.04773630409848915</v>
       </c>
       <c r="F25">
-        <v>-0.006400697852442254</v>
+        <v>-0.01046989034021984</v>
       </c>
       <c r="G25">
-        <v>0.01344446168124512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006337035898294928</v>
+      </c>
+      <c r="H25">
+        <v>0.00935459905305519</v>
+      </c>
+      <c r="I25">
+        <v>-0.01199466161538496</v>
+      </c>
+      <c r="J25">
+        <v>0.01042107448545911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.001929589280285637</v>
+        <v>-0.006974526900876104</v>
       </c>
       <c r="C26">
-        <v>-0.01966371247136443</v>
+        <v>-0.01990583547558846</v>
       </c>
       <c r="D26">
-        <v>-0.02181952966242441</v>
+        <v>-0.003879525531740041</v>
       </c>
       <c r="E26">
-        <v>0.05094428023067787</v>
+        <v>-0.05775677686554551</v>
       </c>
       <c r="F26">
-        <v>0.006710563665273907</v>
+        <v>0.001360367707639178</v>
       </c>
       <c r="G26">
-        <v>-0.01385225143112157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003197281717431515</v>
+      </c>
+      <c r="H26">
+        <v>0.03507972349940004</v>
+      </c>
+      <c r="I26">
+        <v>-0.002384676136884082</v>
+      </c>
+      <c r="J26">
+        <v>-0.01250375390558395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1090644771472529</v>
+        <v>-0.08872638084262098</v>
       </c>
       <c r="C27">
-        <v>-0.004129467929083813</v>
+        <v>-0.01701066933406847</v>
       </c>
       <c r="D27">
-        <v>-0.05396521484189454</v>
+        <v>0.02940263657435644</v>
       </c>
       <c r="E27">
-        <v>0.1039228906213047</v>
+        <v>-0.08818597629710735</v>
       </c>
       <c r="F27">
-        <v>-0.009400731033328814</v>
+        <v>-0.04466331978050145</v>
       </c>
       <c r="G27">
-        <v>0.01857295418882576</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.003551233939708577</v>
+      </c>
+      <c r="H27">
+        <v>0.01070952148524546</v>
+      </c>
+      <c r="I27">
+        <v>-0.002183003095910156</v>
+      </c>
+      <c r="J27">
+        <v>-0.01763809241498818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02644097702271455</v>
+        <v>-0.01141170692968792</v>
       </c>
       <c r="C28">
-        <v>0.2320020004071467</v>
+        <v>0.2240075053450222</v>
       </c>
       <c r="D28">
-        <v>0.008813021978942069</v>
+        <v>-0.02504939074946529</v>
       </c>
       <c r="E28">
-        <v>0.03599320998100031</v>
+        <v>-0.03993962517005906</v>
       </c>
       <c r="F28">
-        <v>0.0008407705585176489</v>
+        <v>-0.003698169715799121</v>
       </c>
       <c r="G28">
-        <v>0.04463778326419676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0149261388074658</v>
+      </c>
+      <c r="H28">
+        <v>-0.04761917539033114</v>
+      </c>
+      <c r="I28">
+        <v>0.1361247802447913</v>
+      </c>
+      <c r="J28">
+        <v>-0.09994505873602551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01855427114804934</v>
+        <v>-0.01946388504358814</v>
       </c>
       <c r="C29">
-        <v>-0.01967220866519141</v>
+        <v>-0.02251543082998694</v>
       </c>
       <c r="D29">
-        <v>-0.02604365180171854</v>
+        <v>0.01668395360029409</v>
       </c>
       <c r="E29">
-        <v>0.03274382063374701</v>
+        <v>-0.03601175658878479</v>
       </c>
       <c r="F29">
-        <v>0.003072567014040862</v>
+        <v>-0.0302001631892484</v>
       </c>
       <c r="G29">
-        <v>-0.03680279261690193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01704384032457977</v>
+      </c>
+      <c r="H29">
+        <v>0.05946082384888286</v>
+      </c>
+      <c r="I29">
+        <v>0.01183972316940092</v>
+      </c>
+      <c r="J29">
+        <v>-0.01965564781426397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1029405429765571</v>
+        <v>-0.1028318912786224</v>
       </c>
       <c r="C30">
-        <v>0.001020784552966896</v>
+        <v>-0.02650285186232431</v>
       </c>
       <c r="D30">
-        <v>-0.04506968368908638</v>
+        <v>0.03090679628240704</v>
       </c>
       <c r="E30">
-        <v>0.1197313151574021</v>
+        <v>-0.112975461550848</v>
       </c>
       <c r="F30">
-        <v>-0.01401200407981254</v>
+        <v>-0.0134513306706112</v>
       </c>
       <c r="G30">
-        <v>0.07833943030662302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0256840031724773</v>
+      </c>
+      <c r="H30">
+        <v>0.01079984392068903</v>
+      </c>
+      <c r="I30">
+        <v>-0.02624739509387283</v>
+      </c>
+      <c r="J30">
+        <v>0.02217394227402438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05217143043194575</v>
+        <v>-0.05637759924264207</v>
       </c>
       <c r="C31">
-        <v>-0.01126186262932254</v>
+        <v>-0.01699824825877914</v>
       </c>
       <c r="D31">
-        <v>-0.01780934782172772</v>
+        <v>0.01525904408263476</v>
       </c>
       <c r="E31">
-        <v>-0.00742108758735474</v>
+        <v>-0.01876563736189014</v>
       </c>
       <c r="F31">
-        <v>0.0082204664595789</v>
+        <v>0.0183234727097016</v>
       </c>
       <c r="G31">
-        <v>-0.01839351167972548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03377806951326724</v>
+      </c>
+      <c r="H31">
+        <v>0.04734178581313409</v>
+      </c>
+      <c r="I31">
+        <v>0.01471951612241518</v>
+      </c>
+      <c r="J31">
+        <v>-0.02042788470884924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06505577540230739</v>
+        <v>-0.04691420554690419</v>
       </c>
       <c r="C32">
-        <v>-0.0215218691675815</v>
+        <v>-0.04482331004492725</v>
       </c>
       <c r="D32">
-        <v>-0.04141258179515379</v>
+        <v>0.01947724732114466</v>
       </c>
       <c r="E32">
-        <v>0.1071898581160286</v>
+        <v>-0.09840538476991967</v>
       </c>
       <c r="F32">
-        <v>-0.03815297768336132</v>
+        <v>-0.03873043132651734</v>
       </c>
       <c r="G32">
-        <v>-0.004229311891141627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01826889930720705</v>
+      </c>
+      <c r="H32">
+        <v>0.05733640284182219</v>
+      </c>
+      <c r="I32">
+        <v>0.04138304153231257</v>
+      </c>
+      <c r="J32">
+        <v>0.02003502808752806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0653370652199633</v>
+        <v>-0.05801203089561468</v>
       </c>
       <c r="C33">
-        <v>-0.02580279409650951</v>
+        <v>-0.04099096760828488</v>
       </c>
       <c r="D33">
-        <v>-0.03599811709391253</v>
+        <v>0.004649447105546179</v>
       </c>
       <c r="E33">
-        <v>0.06689004678553882</v>
+        <v>-0.08820429510652962</v>
       </c>
       <c r="F33">
-        <v>0.01624901818919435</v>
+        <v>-0.01151441006513595</v>
       </c>
       <c r="G33">
-        <v>-0.005814026721876916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01210557437871233</v>
+      </c>
+      <c r="H33">
+        <v>0.05155618254034854</v>
+      </c>
+      <c r="I33">
+        <v>-0.008630945542614041</v>
+      </c>
+      <c r="J33">
+        <v>0.00207647706729001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04574247263105135</v>
+        <v>-0.04211686879575154</v>
       </c>
       <c r="C34">
-        <v>-0.01214919685886478</v>
+        <v>-0.02134551306651907</v>
       </c>
       <c r="D34">
-        <v>-0.0008906942993950884</v>
+        <v>0.008559999876196007</v>
       </c>
       <c r="E34">
-        <v>0.02694573696753521</v>
+        <v>-0.03831495842666546</v>
       </c>
       <c r="F34">
-        <v>-0.007412717204250402</v>
+        <v>-0.009045277807986859</v>
       </c>
       <c r="G34">
-        <v>-0.008462565117221613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.002876935104837086</v>
+      </c>
+      <c r="H34">
+        <v>0.02518564174771045</v>
+      </c>
+      <c r="I34">
+        <v>-0.004072339888885146</v>
+      </c>
+      <c r="J34">
+        <v>0.0125924222041001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.008490423316691042</v>
+        <v>-0.01223273285383097</v>
       </c>
       <c r="C36">
-        <v>0.00675372900693266</v>
+        <v>-0.001368324977422978</v>
       </c>
       <c r="D36">
-        <v>-0.01046789050504557</v>
+        <v>0.005323319222865419</v>
       </c>
       <c r="E36">
-        <v>0.02484212888429212</v>
+        <v>-0.02949183771261688</v>
       </c>
       <c r="F36">
-        <v>0.00127803208018797</v>
+        <v>-0.01149453924029247</v>
       </c>
       <c r="G36">
-        <v>-0.001803579540168153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01016404158915137</v>
+      </c>
+      <c r="H36">
+        <v>0.0354011629314324</v>
+      </c>
+      <c r="I36">
+        <v>0.01528880564932335</v>
+      </c>
+      <c r="J36">
+        <v>0.002923329764268328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05092236653985196</v>
+        <v>-0.02953661664467742</v>
       </c>
       <c r="C38">
-        <v>-0.005188625493458847</v>
+        <v>-0.009988160255807442</v>
       </c>
       <c r="D38">
-        <v>-0.03171164649608882</v>
+        <v>0.007115924440060236</v>
       </c>
       <c r="E38">
-        <v>0.02491204713608889</v>
+        <v>-0.04685493822612373</v>
       </c>
       <c r="F38">
-        <v>0.001912324650960928</v>
+        <v>-0.02026259346728492</v>
       </c>
       <c r="G38">
-        <v>-0.01380471666734065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01652696201668264</v>
+      </c>
+      <c r="H38">
+        <v>0.01051604216412868</v>
+      </c>
+      <c r="I38">
+        <v>0.01216670994906184</v>
+      </c>
+      <c r="J38">
+        <v>0.01208044583552228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07621394477145352</v>
+        <v>-0.06298515108385333</v>
       </c>
       <c r="C39">
-        <v>-0.007517756430721397</v>
+        <v>-0.0278603733055082</v>
       </c>
       <c r="D39">
-        <v>-0.01701620017295455</v>
+        <v>0.01890110537280472</v>
       </c>
       <c r="E39">
-        <v>0.04572058975792246</v>
+        <v>-0.06253352317523211</v>
       </c>
       <c r="F39">
-        <v>0.006084543201446539</v>
+        <v>-0.001581178847564102</v>
       </c>
       <c r="G39">
-        <v>0.01557162075656847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.003773456722087882</v>
+      </c>
+      <c r="H39">
+        <v>0.02221265724482791</v>
+      </c>
+      <c r="I39">
+        <v>-0.01646607904606414</v>
+      </c>
+      <c r="J39">
+        <v>0.02052715894532306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.06759722302911898</v>
+        <v>-0.05455605244887084</v>
       </c>
       <c r="C40">
-        <v>-0.0290907585021238</v>
+        <v>-0.03508834595648563</v>
       </c>
       <c r="D40">
-        <v>-0.03919128956461803</v>
+        <v>0.02160583017278679</v>
       </c>
       <c r="E40">
-        <v>0.1049798108555009</v>
+        <v>-0.1114583019424981</v>
       </c>
       <c r="F40">
-        <v>0.006420857977280586</v>
+        <v>-0.000697075117382062</v>
       </c>
       <c r="G40">
-        <v>-0.04773184530793567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.006317863703572263</v>
+      </c>
+      <c r="H40">
+        <v>0.07667890144107367</v>
+      </c>
+      <c r="I40">
+        <v>0.02824630997673796</v>
+      </c>
+      <c r="J40">
+        <v>0.004196612945432302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002671719800822692</v>
+        <v>-0.0003320701520886447</v>
       </c>
       <c r="C41">
-        <v>-0.006242054749456933</v>
+        <v>-0.00875235680976231</v>
       </c>
       <c r="D41">
-        <v>-0.01924670129837857</v>
+        <v>0.003559946048394084</v>
       </c>
       <c r="E41">
-        <v>0.0145560606461506</v>
+        <v>-0.01841147843313554</v>
       </c>
       <c r="F41">
-        <v>0.02216357234016814</v>
+        <v>-0.008259202055210442</v>
       </c>
       <c r="G41">
-        <v>-0.02433845226869959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02872037986072445</v>
+      </c>
+      <c r="H41">
+        <v>0.04010321447181057</v>
+      </c>
+      <c r="I41">
+        <v>0.01574351144990115</v>
+      </c>
+      <c r="J41">
+        <v>-0.02883566387119347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1636811793807016</v>
+        <v>-0.24389543225303</v>
       </c>
       <c r="C42">
-        <v>-0.1514452603990407</v>
+        <v>-0.1503749233111927</v>
       </c>
       <c r="D42">
-        <v>0.8947090882433216</v>
+        <v>-0.9157518542066134</v>
       </c>
       <c r="E42">
-        <v>0.279109268742485</v>
+        <v>0.1184381393287826</v>
       </c>
       <c r="F42">
-        <v>0.09471794007550749</v>
+        <v>0.1842904177371594</v>
       </c>
       <c r="G42">
-        <v>0.09902013623325433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.006653275562965908</v>
+      </c>
+      <c r="H42">
+        <v>-0.01372372170191634</v>
+      </c>
+      <c r="I42">
+        <v>0.02880383851879347</v>
+      </c>
+      <c r="J42">
+        <v>-0.04596485353731264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008155502170967218</v>
+        <v>-0.0009182789950741602</v>
       </c>
       <c r="C43">
-        <v>-0.009744177697446213</v>
+        <v>-0.01351663863457832</v>
       </c>
       <c r="D43">
-        <v>-0.02852180623472634</v>
+        <v>0.005930312069853563</v>
       </c>
       <c r="E43">
-        <v>0.02804186426492191</v>
+        <v>-0.03059835306511199</v>
       </c>
       <c r="F43">
-        <v>-0.009590453310931956</v>
+        <v>-0.005847450869750687</v>
       </c>
       <c r="G43">
-        <v>-0.02397738793486355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006869673103353789</v>
+      </c>
+      <c r="H43">
+        <v>0.03604096986506734</v>
+      </c>
+      <c r="I43">
+        <v>0.007046908927512117</v>
+      </c>
+      <c r="J43">
+        <v>-0.02092960291112628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04322325010381356</v>
+        <v>-0.02832592749722584</v>
       </c>
       <c r="C44">
-        <v>-0.03125177702061738</v>
+        <v>-0.03484541164668827</v>
       </c>
       <c r="D44">
-        <v>-0.04974995973819693</v>
+        <v>0.001786615167173082</v>
       </c>
       <c r="E44">
-        <v>0.1005888323370566</v>
+        <v>-0.1204386603175365</v>
       </c>
       <c r="F44">
-        <v>0.04019411411466711</v>
+        <v>-0.03127953660820501</v>
       </c>
       <c r="G44">
-        <v>-0.08813033426314509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02943562778539549</v>
+      </c>
+      <c r="H44">
+        <v>0.1104892727996503</v>
+      </c>
+      <c r="I44">
+        <v>0.04442521865094541</v>
+      </c>
+      <c r="J44">
+        <v>-0.01058193759432041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.0208594230652447</v>
+        <v>-0.01980844733688333</v>
       </c>
       <c r="C46">
-        <v>-0.01543830271747581</v>
+        <v>-0.02733000279809101</v>
       </c>
       <c r="D46">
-        <v>-0.03477292453241135</v>
+        <v>0.01711656977168796</v>
       </c>
       <c r="E46">
-        <v>0.01945956947676785</v>
+        <v>-0.04789614004272941</v>
       </c>
       <c r="F46">
-        <v>0.01848693130632727</v>
+        <v>-0.01349646566142023</v>
       </c>
       <c r="G46">
-        <v>-0.03280587613302585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01764779831128845</v>
+      </c>
+      <c r="H46">
+        <v>0.06128474606777524</v>
+      </c>
+      <c r="I46">
+        <v>0.008509417896374808</v>
+      </c>
+      <c r="J46">
+        <v>-0.03589366627609195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.0777782414724993</v>
+        <v>-0.0861489500260883</v>
       </c>
       <c r="C47">
-        <v>-0.004229855116760638</v>
+        <v>-0.01480072039809771</v>
       </c>
       <c r="D47">
-        <v>-0.01938891732565027</v>
+        <v>0.02168925639796029</v>
       </c>
       <c r="E47">
-        <v>-0.008913119766144005</v>
+        <v>-0.005745862448129282</v>
       </c>
       <c r="F47">
-        <v>0.003459510882431089</v>
+        <v>0.003057603167612517</v>
       </c>
       <c r="G47">
-        <v>-0.03947157469427681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02873447814638088</v>
+      </c>
+      <c r="H47">
+        <v>0.06993810412251751</v>
+      </c>
+      <c r="I47">
+        <v>0.01785292059466165</v>
+      </c>
+      <c r="J47">
+        <v>-0.0286751808342256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0102948939259434</v>
+        <v>-0.01281454876688733</v>
       </c>
       <c r="C48">
-        <v>-0.01696956969728302</v>
+        <v>-0.01930119976086388</v>
       </c>
       <c r="D48">
-        <v>-0.0217153702634033</v>
+        <v>0.00501649325196428</v>
       </c>
       <c r="E48">
-        <v>0.03287594533876224</v>
+        <v>-0.04012166637932819</v>
       </c>
       <c r="F48">
-        <v>0.005834611025588721</v>
+        <v>-0.01169352186214898</v>
       </c>
       <c r="G48">
-        <v>-0.002970167941546877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002709006626540013</v>
+      </c>
+      <c r="H48">
+        <v>0.0240113871346365</v>
+      </c>
+      <c r="I48">
+        <v>0.01106941709196411</v>
+      </c>
+      <c r="J48">
+        <v>-0.01481327097105125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07615630910601638</v>
+        <v>-0.07931293701955275</v>
       </c>
       <c r="C50">
-        <v>-0.02864267236593077</v>
+        <v>-0.03569967733032776</v>
       </c>
       <c r="D50">
-        <v>-0.02034600262921558</v>
+        <v>0.01828062363813683</v>
       </c>
       <c r="E50">
-        <v>-0.02245482224168334</v>
+        <v>-0.01032109562142761</v>
       </c>
       <c r="F50">
-        <v>0.01034911771713226</v>
+        <v>0.005502887759973671</v>
       </c>
       <c r="G50">
-        <v>-0.003110705398400482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007386742391759931</v>
+      </c>
+      <c r="H50">
+        <v>0.04962807440985964</v>
+      </c>
+      <c r="I50">
+        <v>0.02102978938162316</v>
+      </c>
+      <c r="J50">
+        <v>0.00176507451030347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06595852567548423</v>
+        <v>-0.04734464249436535</v>
       </c>
       <c r="C51">
-        <v>0.02937971355401428</v>
+        <v>0.007808448430977616</v>
       </c>
       <c r="D51">
-        <v>-0.04450500493638321</v>
+        <v>0.007634201413546374</v>
       </c>
       <c r="E51">
-        <v>0.06982285372868263</v>
+        <v>-0.1027246853415066</v>
       </c>
       <c r="F51">
-        <v>0.04527045807008822</v>
+        <v>-0.00531443180821319</v>
       </c>
       <c r="G51">
-        <v>-0.02368684326698461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04921475854812123</v>
+      </c>
+      <c r="H51">
+        <v>0.04923444457767925</v>
+      </c>
+      <c r="I51">
+        <v>0.02542604265209029</v>
+      </c>
+      <c r="J51">
+        <v>-0.06825307272074371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.139477843956168</v>
+        <v>-0.1276258419881036</v>
       </c>
       <c r="C53">
-        <v>-0.005956692579764796</v>
+        <v>-0.03312385464014479</v>
       </c>
       <c r="D53">
-        <v>-0.04166503329447936</v>
+        <v>0.04604047431402964</v>
       </c>
       <c r="E53">
-        <v>-0.01731066206045541</v>
+        <v>0.01455106368844335</v>
       </c>
       <c r="F53">
-        <v>0.008749481538734134</v>
+        <v>0.008228095710954477</v>
       </c>
       <c r="G53">
-        <v>-0.02939635202918042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02952387920900383</v>
+      </c>
+      <c r="H53">
+        <v>0.01324630940295758</v>
+      </c>
+      <c r="I53">
+        <v>-0.01818978337870595</v>
+      </c>
+      <c r="J53">
+        <v>-0.0859940442773353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.01975130139920366</v>
+        <v>-0.02143973255621013</v>
       </c>
       <c r="C54">
-        <v>0.007136684463078618</v>
+        <v>-0.003972586266316572</v>
       </c>
       <c r="D54">
-        <v>-0.04206677468201322</v>
+        <v>0.02402888435946997</v>
       </c>
       <c r="E54">
-        <v>0.0283100789886173</v>
+        <v>-0.04209507815581275</v>
       </c>
       <c r="F54">
-        <v>0.03007179569762649</v>
+        <v>-0.02264582729741078</v>
       </c>
       <c r="G54">
-        <v>-0.04028548242278994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03121867305564504</v>
+      </c>
+      <c r="H54">
+        <v>0.06692937483528609</v>
+      </c>
+      <c r="I54">
+        <v>0.04141596636819298</v>
+      </c>
+      <c r="J54">
+        <v>-0.03292242650909092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09571038345518174</v>
+        <v>-0.1022346607847298</v>
       </c>
       <c r="C55">
-        <v>0.004817790272723732</v>
+        <v>-0.01623379877741836</v>
       </c>
       <c r="D55">
-        <v>-0.03588697815340956</v>
+        <v>0.02948366200747124</v>
       </c>
       <c r="E55">
-        <v>0.003640247891017918</v>
+        <v>0.01697025959688081</v>
       </c>
       <c r="F55">
-        <v>-0.02116686920696041</v>
+        <v>-0.03152633663974122</v>
       </c>
       <c r="G55">
-        <v>-0.0271024371051345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.004977250405665446</v>
+      </c>
+      <c r="H55">
+        <v>0.03398871431819828</v>
+      </c>
+      <c r="I55">
+        <v>-0.025764245631471</v>
+      </c>
+      <c r="J55">
+        <v>-0.06958243321516906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1776429782136871</v>
+        <v>-0.1692328576538424</v>
       </c>
       <c r="C56">
-        <v>0.02632048435489177</v>
+        <v>-0.01049623227438186</v>
       </c>
       <c r="D56">
-        <v>-0.05714266160719146</v>
+        <v>0.08882951157776894</v>
       </c>
       <c r="E56">
-        <v>-0.06988586134415035</v>
+        <v>0.06871806880740212</v>
       </c>
       <c r="F56">
-        <v>-0.04795626782871831</v>
+        <v>-0.002591579239592393</v>
       </c>
       <c r="G56">
-        <v>-0.01909825857863222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01537880619274464</v>
+      </c>
+      <c r="H56">
+        <v>-0.03124731076882255</v>
+      </c>
+      <c r="I56">
+        <v>-0.06277971917392144</v>
+      </c>
+      <c r="J56">
+        <v>-0.07221140888464306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09666651456605228</v>
+        <v>-0.07523808894649031</v>
       </c>
       <c r="C57">
-        <v>-0.01753995257348162</v>
+        <v>-0.02229879556119624</v>
       </c>
       <c r="D57">
-        <v>-0.03754732743985864</v>
+        <v>0.006347639669512746</v>
       </c>
       <c r="E57">
-        <v>0.06609432702150768</v>
+        <v>-0.08260552508627958</v>
       </c>
       <c r="F57">
-        <v>-0.008946221735787206</v>
+        <v>-0.01095099453973631</v>
       </c>
       <c r="G57">
-        <v>-0.0429011765893865</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005425099386087313</v>
+      </c>
+      <c r="H57">
+        <v>0.05233452268463656</v>
+      </c>
+      <c r="I57">
+        <v>-0.01355377760052629</v>
+      </c>
+      <c r="J57">
+        <v>-0.01956308456737733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1728665901711587</v>
+        <v>-0.1946838765540515</v>
       </c>
       <c r="C58">
-        <v>0.009683067474370591</v>
+        <v>-0.03544769457665047</v>
       </c>
       <c r="D58">
-        <v>0.0188104377570904</v>
+        <v>-0.005027751698729934</v>
       </c>
       <c r="E58">
-        <v>0.07798980556791525</v>
+        <v>-0.1486372924586491</v>
       </c>
       <c r="F58">
-        <v>-0.07793915381356915</v>
+        <v>0.005037913253581051</v>
       </c>
       <c r="G58">
-        <v>-0.1758977159925372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1498741047901283</v>
+      </c>
+      <c r="H58">
+        <v>0.301898613876604</v>
+      </c>
+      <c r="I58">
+        <v>0.1709650300640034</v>
+      </c>
+      <c r="J58">
+        <v>0.1577255502462221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01647008945869038</v>
+        <v>-0.01812014841018361</v>
       </c>
       <c r="C59">
-        <v>0.2006685222015702</v>
+        <v>0.1958902236508557</v>
       </c>
       <c r="D59">
-        <v>-0.02857898928191552</v>
+        <v>0.01072423932882866</v>
       </c>
       <c r="E59">
-        <v>0.03710253298320489</v>
+        <v>-0.05367414894118921</v>
       </c>
       <c r="F59">
-        <v>-0.00584284697410081</v>
+        <v>0.009578385649449853</v>
       </c>
       <c r="G59">
-        <v>0.04976986199938795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1.797029205774236e-05</v>
+      </c>
+      <c r="H59">
+        <v>-0.03788571105669521</v>
+      </c>
+      <c r="I59">
+        <v>0.07473574420867343</v>
+      </c>
+      <c r="J59">
+        <v>-0.04210950039050976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1714609787949785</v>
+        <v>-0.1768145417814948</v>
       </c>
       <c r="C60">
-        <v>0.1204207041918483</v>
+        <v>0.06793008716054628</v>
       </c>
       <c r="D60">
-        <v>-0.09756363300311056</v>
+        <v>0.02035435130668964</v>
       </c>
       <c r="E60">
-        <v>0.1709307611900944</v>
+        <v>-0.2099325772150974</v>
       </c>
       <c r="F60">
-        <v>0.001059490699345</v>
+        <v>0.03555149459336326</v>
       </c>
       <c r="G60">
-        <v>0.1504677659432303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06408705322413701</v>
+      </c>
+      <c r="H60">
+        <v>-0.2228935268521919</v>
+      </c>
+      <c r="I60">
+        <v>-0.1059123714049522</v>
+      </c>
+      <c r="J60">
+        <v>0.04958890260072913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05197324878461849</v>
+        <v>-0.03966466042455447</v>
       </c>
       <c r="C61">
-        <v>-0.001512171510780939</v>
+        <v>-0.01523996383340494</v>
       </c>
       <c r="D61">
-        <v>-0.008793639594054452</v>
+        <v>0.002029356540782199</v>
       </c>
       <c r="E61">
-        <v>0.03957454592130748</v>
+        <v>-0.04595554560126484</v>
       </c>
       <c r="F61">
-        <v>0.002518396778545507</v>
+        <v>-0.002605930503944867</v>
       </c>
       <c r="G61">
-        <v>0.0364830907083421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.000524110581493297</v>
+      </c>
+      <c r="H61">
+        <v>0.004788679328598807</v>
+      </c>
+      <c r="I61">
+        <v>-0.02167508761502523</v>
+      </c>
+      <c r="J61">
+        <v>0.03141995647935515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03396473339360522</v>
+        <v>-0.02733109672804526</v>
       </c>
       <c r="C63">
-        <v>0.007204321790325989</v>
+        <v>-0.01347249380118359</v>
       </c>
       <c r="D63">
-        <v>-0.01851708624893034</v>
+        <v>0.01006905936719775</v>
       </c>
       <c r="E63">
-        <v>0.04009904790249934</v>
+        <v>-0.03517709117977397</v>
       </c>
       <c r="F63">
-        <v>0.001361379639963735</v>
+        <v>-0.01075930456241329</v>
       </c>
       <c r="G63">
-        <v>-0.01914829474862133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001990226878331836</v>
+      </c>
+      <c r="H63">
+        <v>0.04162151008716384</v>
+      </c>
+      <c r="I63">
+        <v>0.01247932163116298</v>
+      </c>
+      <c r="J63">
+        <v>-0.04396687700969682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09497494626730214</v>
+        <v>-0.06837386880951415</v>
       </c>
       <c r="C64">
-        <v>-0.00263599306803557</v>
+        <v>-0.02664368524125751</v>
       </c>
       <c r="D64">
-        <v>-0.1046774451108299</v>
+        <v>0.03913347702078882</v>
       </c>
       <c r="E64">
-        <v>0.06255347619697636</v>
+        <v>-0.06397248383790437</v>
       </c>
       <c r="F64">
-        <v>0.07443633683560691</v>
+        <v>-0.0626641355218046</v>
       </c>
       <c r="G64">
-        <v>0.03361269784625916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06629267407590345</v>
+      </c>
+      <c r="H64">
+        <v>-0.008515188976321133</v>
+      </c>
+      <c r="I64">
+        <v>-0.02926415234915339</v>
+      </c>
+      <c r="J64">
+        <v>-0.06764605992200609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01046164917772926</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.005382038212138685</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.002407063408903024</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00486141092636983</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.002072988000602602</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01374613498863497</v>
+      </c>
+      <c r="H65">
+        <v>0.000112699978823887</v>
+      </c>
+      <c r="I65">
+        <v>0.0003839660625017505</v>
+      </c>
+      <c r="J65">
+        <v>-0.0009440647615730817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1003469248806191</v>
+        <v>-0.07521181185603847</v>
       </c>
       <c r="C66">
-        <v>-0.010959971829128</v>
+        <v>-0.03583175580956292</v>
       </c>
       <c r="D66">
-        <v>-0.06854866160139809</v>
+        <v>0.04104030393553221</v>
       </c>
       <c r="E66">
-        <v>0.06700938733334731</v>
+        <v>-0.08859713539905387</v>
       </c>
       <c r="F66">
-        <v>0.007346102474442028</v>
+        <v>-0.004263832346703304</v>
       </c>
       <c r="G66">
-        <v>0.01264499411553468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.003277183272916979</v>
+      </c>
+      <c r="H66">
+        <v>0.02184267382509827</v>
+      </c>
+      <c r="I66">
+        <v>-0.04128693146994609</v>
+      </c>
+      <c r="J66">
+        <v>0.01583306852386836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.05715146687251583</v>
+        <v>-0.03962945964810467</v>
       </c>
       <c r="C67">
-        <v>0.01677265181466448</v>
+        <v>0.007802676237234908</v>
       </c>
       <c r="D67">
-        <v>-0.02164713215941284</v>
+        <v>0.003900716790139695</v>
       </c>
       <c r="E67">
-        <v>0.02324408101711636</v>
+        <v>-0.04215719645607049</v>
       </c>
       <c r="F67">
-        <v>0.0003720808129117751</v>
+        <v>-0.008493481328939774</v>
       </c>
       <c r="G67">
-        <v>-0.01802523754922174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02310981565645314</v>
+      </c>
+      <c r="H67">
+        <v>-0.0005304364334319995</v>
+      </c>
+      <c r="I67">
+        <v>-0.02642857887910152</v>
+      </c>
+      <c r="J67">
+        <v>0.02222287753906562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01296447117237144</v>
+        <v>-0.02731087948908748</v>
       </c>
       <c r="C68">
-        <v>0.2485496375267286</v>
+        <v>0.2380060516351434</v>
       </c>
       <c r="D68">
-        <v>-0.006471112557881608</v>
+        <v>0.0005043338331137739</v>
       </c>
       <c r="E68">
-        <v>0.03395630098280863</v>
+        <v>-0.03984337384030021</v>
       </c>
       <c r="F68">
-        <v>-0.01872360231441983</v>
+        <v>-0.00435695873508713</v>
       </c>
       <c r="G68">
-        <v>0.03460743661379394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01288169217551699</v>
+      </c>
+      <c r="H68">
+        <v>-0.04211969265522143</v>
+      </c>
+      <c r="I68">
+        <v>0.1485937639330717</v>
+      </c>
+      <c r="J68">
+        <v>-0.09685397765717234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06362954956117338</v>
+        <v>-0.06762538694391355</v>
       </c>
       <c r="C69">
-        <v>-0.005697936882031436</v>
+        <v>-0.01140932040889253</v>
       </c>
       <c r="D69">
-        <v>-0.02712654651904129</v>
+        <v>0.02701985953873606</v>
       </c>
       <c r="E69">
-        <v>-0.00901575841588198</v>
+        <v>-0.01165540516694887</v>
       </c>
       <c r="F69">
-        <v>-0.006055571463211475</v>
+        <v>0.006960121965588854</v>
       </c>
       <c r="G69">
-        <v>-0.001920228606372111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01881247481509014</v>
+      </c>
+      <c r="H69">
+        <v>0.04923392734062918</v>
+      </c>
+      <c r="I69">
+        <v>-2.585698299721382e-05</v>
+      </c>
+      <c r="J69">
+        <v>-0.008944357358080799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.009647141403583168</v>
+        <v>-0.0314746673449696</v>
       </c>
       <c r="C71">
-        <v>0.2220813410388259</v>
+        <v>0.2273003233446478</v>
       </c>
       <c r="D71">
-        <v>-0.01126273948377952</v>
+        <v>-0.02044188731135844</v>
       </c>
       <c r="E71">
-        <v>0.05650923123584473</v>
+        <v>-0.0597787959558165</v>
       </c>
       <c r="F71">
-        <v>-0.01783476511212449</v>
+        <v>0.02126324066772474</v>
       </c>
       <c r="G71">
-        <v>0.1479195289055265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.002419417759917082</v>
+      </c>
+      <c r="H71">
+        <v>-0.06065041040013371</v>
+      </c>
+      <c r="I71">
+        <v>0.1589241002666729</v>
+      </c>
+      <c r="J71">
+        <v>-0.03783009785256377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.100732795512087</v>
+        <v>-0.1106667787549144</v>
       </c>
       <c r="C72">
-        <v>0.02424704653366059</v>
+        <v>0.009770023440544267</v>
       </c>
       <c r="D72">
-        <v>-0.06588983383889055</v>
+        <v>0.060766306523995</v>
       </c>
       <c r="E72">
-        <v>0.04788465021597958</v>
+        <v>-0.08515838942081713</v>
       </c>
       <c r="F72">
-        <v>-0.009982930001093276</v>
+        <v>-0.01681827038540787</v>
       </c>
       <c r="G72">
-        <v>-0.01425921716379318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03394042370040521</v>
+      </c>
+      <c r="H72">
+        <v>0.0008957433119844483</v>
+      </c>
+      <c r="I72">
+        <v>0.01009916006337435</v>
+      </c>
+      <c r="J72">
+        <v>0.02173306782630026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.266363456903224</v>
+        <v>-0.2712421945740499</v>
       </c>
       <c r="C73">
-        <v>0.2222315555835408</v>
+        <v>0.1517892214746384</v>
       </c>
       <c r="D73">
-        <v>-0.09249410635199339</v>
+        <v>-0.008367046911968816</v>
       </c>
       <c r="E73">
-        <v>0.2686524978448027</v>
+        <v>-0.3249916075276468</v>
       </c>
       <c r="F73">
-        <v>-0.04741387850229496</v>
+        <v>0.06633759385285425</v>
       </c>
       <c r="G73">
-        <v>0.3759565715397817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1454693520650291</v>
+      </c>
+      <c r="H73">
+        <v>-0.4036808297545977</v>
+      </c>
+      <c r="I73">
+        <v>-0.22766560754916</v>
+      </c>
+      <c r="J73">
+        <v>0.3374209035916754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1533453135513762</v>
+        <v>-0.1531524559147224</v>
       </c>
       <c r="C74">
-        <v>0.01750355096271842</v>
+        <v>-0.007980499034471306</v>
       </c>
       <c r="D74">
-        <v>-0.04372980529558202</v>
+        <v>0.0462823561493675</v>
       </c>
       <c r="E74">
-        <v>0.0001660730606784674</v>
+        <v>0.02539865972897508</v>
       </c>
       <c r="F74">
-        <v>-0.04686355577948996</v>
+        <v>-0.001049413113590127</v>
       </c>
       <c r="G74">
-        <v>-0.008343683314706786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0186195911192269</v>
+      </c>
+      <c r="H74">
+        <v>-0.02349997878115508</v>
+      </c>
+      <c r="I74">
+        <v>-0.06707376989858797</v>
+      </c>
+      <c r="J74">
+        <v>-0.07612350167502377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2351564147737276</v>
+        <v>-0.245687281091783</v>
       </c>
       <c r="C75">
-        <v>0.02587959726476237</v>
+        <v>-0.01269442759589837</v>
       </c>
       <c r="D75">
-        <v>-0.01824721458853144</v>
+        <v>0.1024491316045304</v>
       </c>
       <c r="E75">
-        <v>-0.09714363126197818</v>
+        <v>0.1111779206921025</v>
       </c>
       <c r="F75">
-        <v>-0.02157935658698741</v>
+        <v>0.02415885462887709</v>
       </c>
       <c r="G75">
-        <v>-0.07642823837758411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02337850368007091</v>
+      </c>
+      <c r="H75">
+        <v>-0.01263425870312953</v>
+      </c>
+      <c r="I75">
+        <v>-0.06386087817851524</v>
+      </c>
+      <c r="J75">
+        <v>-0.1767505712159518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2357877152701114</v>
+        <v>-0.2607630370701814</v>
       </c>
       <c r="C76">
-        <v>0.02009685953456507</v>
+        <v>-0.004481995319609315</v>
       </c>
       <c r="D76">
-        <v>-0.06588582052560234</v>
+        <v>0.1224566958671534</v>
       </c>
       <c r="E76">
-        <v>-0.09024328857777678</v>
+        <v>0.1265162787519129</v>
       </c>
       <c r="F76">
-        <v>-0.03501781300677594</v>
+        <v>-0.008113219089513179</v>
       </c>
       <c r="G76">
-        <v>-0.03961363409747806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01648974464930155</v>
+      </c>
+      <c r="H76">
+        <v>-0.007017173534219774</v>
+      </c>
+      <c r="I76">
+        <v>-0.1200981680126578</v>
+      </c>
+      <c r="J76">
+        <v>-0.153160660759884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1193556736008851</v>
+        <v>-0.1270779940296463</v>
       </c>
       <c r="C77">
-        <v>-0.01560128968281668</v>
+        <v>-0.04375969100610631</v>
       </c>
       <c r="D77">
-        <v>-0.02472692188024872</v>
+        <v>-0.04866910792452794</v>
       </c>
       <c r="E77">
-        <v>0.1700607186160707</v>
+        <v>-0.1717919940304615</v>
       </c>
       <c r="F77">
-        <v>-0.01889967801353757</v>
+        <v>-0.05845774882414483</v>
       </c>
       <c r="G77">
-        <v>-0.1119191429338657</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02171011295176659</v>
+      </c>
+      <c r="H77">
+        <v>0.1442896681533641</v>
+      </c>
+      <c r="I77">
+        <v>0.1355162251421563</v>
+      </c>
+      <c r="J77">
+        <v>-0.114355726237346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09416327895034846</v>
+        <v>-0.08597936367750778</v>
       </c>
       <c r="C78">
-        <v>-0.02804163209291321</v>
+        <v>-0.05244110869394107</v>
       </c>
       <c r="D78">
-        <v>-0.006588131026226488</v>
+        <v>-0.000472588165774751</v>
       </c>
       <c r="E78">
-        <v>0.0972888394080145</v>
+        <v>-0.08692211822729003</v>
       </c>
       <c r="F78">
-        <v>0.00163390025217972</v>
+        <v>-0.04041312370218426</v>
       </c>
       <c r="G78">
-        <v>0.02441550722468205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01282438286042609</v>
+      </c>
+      <c r="H78">
+        <v>0.0187150691333497</v>
+      </c>
+      <c r="I78">
+        <v>0.02612235777543938</v>
+      </c>
+      <c r="J78">
+        <v>-0.0274378620321412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07776789690571349</v>
+        <v>-0.08890105072406096</v>
       </c>
       <c r="C80">
-        <v>0.006220859636808368</v>
+        <v>0.0524185980616955</v>
       </c>
       <c r="D80">
-        <v>0.0232681996811012</v>
+        <v>-0.1633345504558876</v>
       </c>
       <c r="E80">
-        <v>-0.02635294143624174</v>
+        <v>0.1664015668735078</v>
       </c>
       <c r="F80">
-        <v>0.005606313665402427</v>
+        <v>-0.9411577601843879</v>
       </c>
       <c r="G80">
-        <v>-0.2925189206810219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01091614519756798</v>
+      </c>
+      <c r="H80">
+        <v>-0.1356195639551642</v>
+      </c>
+      <c r="I80">
+        <v>-0.007908619166688877</v>
+      </c>
+      <c r="J80">
+        <v>0.1080464951975511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.166621720853297</v>
+        <v>-0.1742844892520976</v>
       </c>
       <c r="C81">
-        <v>0.01720168932420467</v>
+        <v>-0.003573059644524021</v>
       </c>
       <c r="D81">
-        <v>-0.01474985522307302</v>
+        <v>0.08679064162174113</v>
       </c>
       <c r="E81">
-        <v>-0.1175582371559427</v>
+        <v>0.1315377770369182</v>
       </c>
       <c r="F81">
-        <v>-0.04962853272648068</v>
+        <v>0.02603213591650109</v>
       </c>
       <c r="G81">
-        <v>-0.05151017585320115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01349953919297125</v>
+      </c>
+      <c r="H81">
+        <v>-0.009058748113236877</v>
+      </c>
+      <c r="I81">
+        <v>-0.06384223010780124</v>
+      </c>
+      <c r="J81">
+        <v>-0.1252597417849468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07465213880462751</v>
+        <v>-0.06416672961616633</v>
       </c>
       <c r="C83">
-        <v>-0.02432895211196486</v>
+        <v>-0.03596084667270752</v>
       </c>
       <c r="D83">
-        <v>0.05259411410555783</v>
+        <v>-0.04502376585212593</v>
       </c>
       <c r="E83">
-        <v>0.09493529321006475</v>
+        <v>-0.07137125522218413</v>
       </c>
       <c r="F83">
-        <v>0.0721267277989224</v>
+        <v>0.006943900956966067</v>
       </c>
       <c r="G83">
-        <v>-0.05459180761568537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04825766354135869</v>
+      </c>
+      <c r="H83">
+        <v>0.04396990620697536</v>
+      </c>
+      <c r="I83">
+        <v>-0.01423500974241123</v>
+      </c>
+      <c r="J83">
+        <v>-0.08777903064284476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2468731044589495</v>
+        <v>-0.2582787736980295</v>
       </c>
       <c r="C85">
-        <v>-0.03594804003830505</v>
+        <v>-0.04964726812122274</v>
       </c>
       <c r="D85">
-        <v>-0.0001104875942255319</v>
+        <v>0.08684812422426917</v>
       </c>
       <c r="E85">
-        <v>-0.1039015735822766</v>
+        <v>0.1374946470073577</v>
       </c>
       <c r="F85">
-        <v>-0.00736940962272479</v>
+        <v>-0.01067339975424491</v>
       </c>
       <c r="G85">
-        <v>-0.1145376494251373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02177003173493586</v>
+      </c>
+      <c r="H85">
+        <v>0.0263453873847895</v>
+      </c>
+      <c r="I85">
+        <v>-0.09043525715912644</v>
+      </c>
+      <c r="J85">
+        <v>-0.1963458738776653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04649232350921376</v>
+        <v>-0.02884394291409178</v>
       </c>
       <c r="C86">
-        <v>-0.03008041371174111</v>
+        <v>-0.04499475370424387</v>
       </c>
       <c r="D86">
-        <v>-0.02874356629033996</v>
+        <v>0.007718679669059357</v>
       </c>
       <c r="E86">
-        <v>0.04750865153117631</v>
+        <v>-0.05839607429925553</v>
       </c>
       <c r="F86">
-        <v>-0.007177699723693768</v>
+        <v>-0.03340410521392915</v>
       </c>
       <c r="G86">
-        <v>-0.004057988359983756</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.007826590784050588</v>
+      </c>
+      <c r="H86">
+        <v>0.02965255921192923</v>
+      </c>
+      <c r="I86">
+        <v>0.07776611867680586</v>
+      </c>
+      <c r="J86">
+        <v>0.001946920864248046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03186747593325136</v>
+        <v>-0.03889020899518049</v>
       </c>
       <c r="C87">
-        <v>0.0520012763741501</v>
+        <v>0.02389897416701609</v>
       </c>
       <c r="D87">
-        <v>-0.02855832911482762</v>
+        <v>0.002216870284936388</v>
       </c>
       <c r="E87">
-        <v>0.05433096620187079</v>
+        <v>-0.08415670761569868</v>
       </c>
       <c r="F87">
-        <v>0.01428174550026273</v>
+        <v>-0.01876789078970235</v>
       </c>
       <c r="G87">
-        <v>0.1727449488266356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.005996341420187246</v>
+      </c>
+      <c r="H87">
+        <v>-0.01755460073915658</v>
+      </c>
+      <c r="I87">
+        <v>0.04273363159916273</v>
+      </c>
+      <c r="J87">
+        <v>0.1057989676218089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03377642895977594</v>
+        <v>-0.02124824697534707</v>
       </c>
       <c r="C88">
-        <v>-0.02172756292621086</v>
+        <v>-0.01576797218957478</v>
       </c>
       <c r="D88">
-        <v>-0.01462365495875502</v>
+        <v>0.01281999742400482</v>
       </c>
       <c r="E88">
-        <v>-0.003509311540521289</v>
+        <v>-0.003861294444329745</v>
       </c>
       <c r="F88">
-        <v>-0.007794554852765044</v>
+        <v>-0.02274882015143575</v>
       </c>
       <c r="G88">
-        <v>-0.05536838131958871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02821342699528705</v>
+      </c>
+      <c r="H88">
+        <v>0.05020820309885982</v>
+      </c>
+      <c r="I88">
+        <v>-0.005969364231266665</v>
+      </c>
+      <c r="J88">
+        <v>0.02098207395827584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.0290559743988419</v>
+        <v>-0.0418214374764423</v>
       </c>
       <c r="C89">
-        <v>0.4354339426715941</v>
+        <v>0.4009831146594522</v>
       </c>
       <c r="D89">
-        <v>0.0868762834422738</v>
+        <v>-0.05400547915886746</v>
       </c>
       <c r="E89">
-        <v>0.02582193451624665</v>
+        <v>-0.04785766624483065</v>
       </c>
       <c r="F89">
-        <v>0.04504713667230891</v>
+        <v>0.03341824408475675</v>
       </c>
       <c r="G89">
-        <v>-0.03580511829992018</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07417431331105735</v>
+      </c>
+      <c r="H89">
+        <v>0.007311189281764857</v>
+      </c>
+      <c r="I89">
+        <v>0.2405179627310869</v>
+      </c>
+      <c r="J89">
+        <v>-0.186204498353658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03273302017693021</v>
+        <v>-0.02204108101615293</v>
       </c>
       <c r="C90">
-        <v>0.3037308569802455</v>
+        <v>0.3267810385315787</v>
       </c>
       <c r="D90">
-        <v>0.00317853440593514</v>
+        <v>-0.029044695385158</v>
       </c>
       <c r="E90">
-        <v>0.03867018064240535</v>
+        <v>-0.03185858476977682</v>
       </c>
       <c r="F90">
-        <v>-0.009415053568675523</v>
+        <v>-0.009712007346697169</v>
       </c>
       <c r="G90">
-        <v>0.06365874596960176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01023948699079377</v>
+      </c>
+      <c r="H90">
+        <v>-0.04907914498727708</v>
+      </c>
+      <c r="I90">
+        <v>0.1644574377652147</v>
+      </c>
+      <c r="J90">
+        <v>-0.1318896629088012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3212245542631219</v>
+        <v>-0.3265088448713974</v>
       </c>
       <c r="C91">
-        <v>0.01123599062037542</v>
+        <v>-0.02129987692101702</v>
       </c>
       <c r="D91">
-        <v>0.03326517327038929</v>
+        <v>0.1030105625012547</v>
       </c>
       <c r="E91">
-        <v>-0.2373961419762458</v>
+        <v>0.2596166705526176</v>
       </c>
       <c r="F91">
-        <v>-0.07038434628963654</v>
+        <v>0.0364600780381617</v>
       </c>
       <c r="G91">
-        <v>-0.2732418092858218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02275212867042312</v>
+      </c>
+      <c r="H91">
+        <v>0.002944312997616097</v>
+      </c>
+      <c r="I91">
+        <v>-0.1679626334481778</v>
+      </c>
+      <c r="J91">
+        <v>-0.340917701561431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03765824744561065</v>
+        <v>-0.06711829716071716</v>
       </c>
       <c r="C92">
-        <v>0.4568794574969547</v>
+        <v>0.480459752488341</v>
       </c>
       <c r="D92">
-        <v>0.209960612841954</v>
+        <v>-0.07963518079067365</v>
       </c>
       <c r="E92">
-        <v>-0.05961016798975099</v>
+        <v>0.1310333614689542</v>
       </c>
       <c r="F92">
-        <v>-0.04344526652382413</v>
+        <v>0.01654713700239277</v>
       </c>
       <c r="G92">
-        <v>-0.4963502962862411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05154064529879799</v>
+      </c>
+      <c r="H92">
+        <v>0.5892099435247036</v>
+      </c>
+      <c r="I92">
+        <v>-0.496078705284274</v>
+      </c>
+      <c r="J92">
+        <v>0.3221063460903706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.03801225964432187</v>
+        <v>-0.02675107029014795</v>
       </c>
       <c r="C93">
-        <v>0.3687224167003125</v>
+        <v>0.4050627799039026</v>
       </c>
       <c r="D93">
-        <v>0.08496062824644073</v>
+        <v>-0.06125783122471436</v>
       </c>
       <c r="E93">
-        <v>-0.01333773432939396</v>
+        <v>0.025794598886538</v>
       </c>
       <c r="F93">
-        <v>0.0009022875200318303</v>
+        <v>0.01222960055207336</v>
       </c>
       <c r="G93">
-        <v>-0.03417696626254317</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0399301073575267</v>
+      </c>
+      <c r="H93">
+        <v>-0.05885336212183859</v>
+      </c>
+      <c r="I93">
+        <v>0.1524279082677644</v>
+      </c>
+      <c r="J93">
+        <v>-0.1703503045042512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3252106101923223</v>
+        <v>-0.3346403942992252</v>
       </c>
       <c r="C94">
-        <v>0.01409119049578092</v>
+        <v>-0.0167931388451669</v>
       </c>
       <c r="D94">
-        <v>0.1806285046416789</v>
+        <v>0.1626473230752631</v>
       </c>
       <c r="E94">
-        <v>-0.541572201759539</v>
+        <v>0.4253395019929101</v>
       </c>
       <c r="F94">
-        <v>-0.3603340914460317</v>
+        <v>0.1150655953565723</v>
       </c>
       <c r="G94">
-        <v>0.3018196965935898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1891609871789224</v>
+      </c>
+      <c r="H94">
+        <v>0.02067303161015059</v>
+      </c>
+      <c r="I94">
+        <v>0.5234939488879687</v>
+      </c>
+      <c r="J94">
+        <v>0.5050527204885341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1906548924993181</v>
+        <v>-0.1441103728331185</v>
       </c>
       <c r="C95">
-        <v>0.0522216652255845</v>
+        <v>-0.05051030855906948</v>
       </c>
       <c r="D95">
-        <v>-0.0160370119991882</v>
+        <v>0.03173442394996641</v>
       </c>
       <c r="E95">
-        <v>-0.2711646108169906</v>
+        <v>0.002308862885342856</v>
       </c>
       <c r="F95">
-        <v>0.8963912458301023</v>
+        <v>0.05581356360614104</v>
       </c>
       <c r="G95">
-        <v>0.07013262695952316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9310439237478019</v>
+      </c>
+      <c r="H95">
+        <v>-0.09427309338712735</v>
+      </c>
+      <c r="I95">
+        <v>0.06677833355799054</v>
+      </c>
+      <c r="J95">
+        <v>0.2091257773383382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2036190897352757</v>
+        <v>-0.2050368944419019</v>
       </c>
       <c r="C98">
-        <v>0.1418238779678651</v>
+        <v>0.09195831132586256</v>
       </c>
       <c r="D98">
-        <v>-0.02998420489489497</v>
+        <v>-0.01230702277763345</v>
       </c>
       <c r="E98">
-        <v>0.1155750996786777</v>
+        <v>-0.1708429797111551</v>
       </c>
       <c r="F98">
-        <v>-0.001963666302631571</v>
+        <v>0.06845652985222742</v>
       </c>
       <c r="G98">
-        <v>0.2223336966816883</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06652585208620275</v>
+      </c>
+      <c r="H98">
+        <v>-0.2934325699211568</v>
+      </c>
+      <c r="I98">
+        <v>-0.1933788228655018</v>
+      </c>
+      <c r="J98">
+        <v>0.1258542804382254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0184307029895329</v>
+        <v>-0.01296586874081747</v>
       </c>
       <c r="C101">
-        <v>-0.02017738643958777</v>
+        <v>-0.0327544344469377</v>
       </c>
       <c r="D101">
-        <v>-0.02773679641605555</v>
+        <v>0.02267986616960812</v>
       </c>
       <c r="E101">
-        <v>0.0326677861266466</v>
+        <v>-0.06030211071408117</v>
       </c>
       <c r="F101">
-        <v>0.002910371443118182</v>
+        <v>-0.03210831441630078</v>
       </c>
       <c r="G101">
-        <v>-0.03751839740496937</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0007924535924196</v>
+      </c>
+      <c r="H101">
+        <v>0.1203154851922541</v>
+      </c>
+      <c r="I101">
+        <v>0.01936345958606364</v>
+      </c>
+      <c r="J101">
+        <v>0.0009852326180711287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1230560364255723</v>
+        <v>-0.1220725899385506</v>
       </c>
       <c r="C102">
-        <v>0.009383762465833185</v>
+        <v>-0.02033320907161256</v>
       </c>
       <c r="D102">
-        <v>-0.01804562083013471</v>
+        <v>0.05323467843347909</v>
       </c>
       <c r="E102">
-        <v>-0.07648274901755707</v>
+        <v>0.08146498908439449</v>
       </c>
       <c r="F102">
-        <v>0.02433857530260464</v>
+        <v>-0.001587276270719484</v>
       </c>
       <c r="G102">
-        <v>-0.01723504971566741</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04155788815772445</v>
+      </c>
+      <c r="H102">
+        <v>-0.005714741984942269</v>
+      </c>
+      <c r="I102">
+        <v>-0.002402585400913898</v>
+      </c>
+      <c r="J102">
+        <v>-0.06508722068888653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01529509041016282</v>
+        <v>-0.02292947450668371</v>
       </c>
       <c r="C103">
-        <v>-0.003037969816488445</v>
+        <v>-0.004120874496270522</v>
       </c>
       <c r="D103">
-        <v>-0.001912609751801312</v>
+        <v>0.01516497599579367</v>
       </c>
       <c r="E103">
-        <v>-0.03213691072951677</v>
+        <v>0.01453845441438755</v>
       </c>
       <c r="F103">
-        <v>-0.01024381788741431</v>
+        <v>-0.002211278827322905</v>
       </c>
       <c r="G103">
-        <v>0.02082602447100886</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01560298736688353</v>
+      </c>
+      <c r="H103">
+        <v>0.002418682544763351</v>
+      </c>
+      <c r="I103">
+        <v>0.02871979328699747</v>
+      </c>
+      <c r="J103">
+        <v>-0.00990620669863195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
